--- a/study2/presentation_materials/study2b_analysis_list.xlsx
+++ b/study2/presentation_materials/study2b_analysis_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8185B43B-4098-4EA4-9346-0ABBF56EB93B}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{854D22BA-830E-4EB5-8D8F-6722911EE799}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
@@ -287,36 +287,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +313,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,22 +360,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DCF582-45DE-418C-4806-D7DAA08E1637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03C1E58-E8B0-0B63-C3BE-AEBBBF1E3115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -398,8 +398,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="285750" y="133350"/>
-          <a:ext cx="9601200" cy="2578100"/>
+          <a:off x="196850" y="88900"/>
+          <a:ext cx="9906000" cy="2578100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,7 +811,7 @@
   <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I7"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -819,120 +819,120 @@
     <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="0.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1"/>
     <row r="2" spans="2:8" ht="18" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="54" customHeight="1">
-      <c r="B4" s="2">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="54" customHeight="1">
-      <c r="B5" s="2">
+      <c r="B5" s="17">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="54" customHeight="1">
-      <c r="B6" s="4">
+      <c r="B6" s="18">
         <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
